--- a/GlobalPeaceIndex.xlsx
+++ b/GlobalPeaceIndex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\2022-2\POL304- Estadistica II\PCFINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{331ADD12-708C-4C09-A395-7C24B3BFCFDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F427F5B7-849A-44C3-AB30-DB4424FD37D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{63447D1A-F18E-47E2-BEA3-99E974E54E87}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -529,6 +529,18 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>naturaldisaster</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>rapidpopscore</t>
+  </si>
+  <si>
+    <t>waterisk</t>
   </si>
 </sst>
 </file>
@@ -567,7 +579,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,8 +598,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -619,13 +637,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -640,6 +673,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -958,15 +1003,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9C6CEB-A1BE-45A4-8217-F0760A5D04FB}">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:I311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="11.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="21.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>167</v>
       </c>
@@ -982,8 +1033,20 @@
       <c r="E1" s="4" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -999,8 +1062,20 @@
       <c r="E2" s="3">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="3">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1016,8 +1091,20 @@
       <c r="E3" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1033,8 +1120,20 @@
       <c r="E4" s="3">
         <v>2.0680000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1050,8 +1149,20 @@
       <c r="E5" s="3">
         <v>1.6659999999999899</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1067,8 +1178,20 @@
       <c r="E6" s="3">
         <v>1.2010000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1207,20 @@
       <c r="E7" s="3">
         <v>1.99</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1101,8 +1236,20 @@
       <c r="E8" s="3">
         <v>1.266</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1118,8 +1265,20 @@
       <c r="E9" s="3">
         <v>1.097</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1135,8 +1294,20 @@
       <c r="E10" s="3">
         <v>2.5790000000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1152,8 +1323,20 @@
       <c r="E11" s="3">
         <v>1.9550000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1169,8 +1352,20 @@
       <c r="E12" s="3">
         <v>2.004</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>5</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1381,20 @@
       <c r="E13" s="3">
         <v>2.2080000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1203,8 +1410,20 @@
       <c r="E14" s="3">
         <v>1.141</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="3">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1220,8 +1439,20 @@
       <c r="E15" s="3">
         <v>1.6659999999999899</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1237,8 +1468,20 @@
       <c r="E16" s="3">
         <v>1.43599999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="3">
+        <v>5</v>
+      </c>
+      <c r="G16" s="3">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1254,8 +1497,20 @@
       <c r="E17" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="3">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1271,8 +1526,20 @@
       <c r="E18" s="3">
         <v>1.835</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1288,8 +1555,20 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="3">
+        <v>4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1305,8 +1584,20 @@
       <c r="E20" s="3">
         <v>1.853</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="3">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1322,8 +1613,20 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="3">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>4</v>
+      </c>
+      <c r="I21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -1339,8 +1642,20 @@
       <c r="E22" s="3">
         <v>3.0230000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1356,8 +1671,20 @@
       <c r="E23" s="3">
         <v>2.4430000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="3">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1373,8 +1700,20 @@
       <c r="E24" s="3">
         <v>1.6379999999999899</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="3">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1729,20 @@
       <c r="E25" s="3">
         <v>2.9670000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="3">
+        <v>4</v>
+      </c>
+      <c r="G25" s="3">
+        <v>4</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
+      <c r="I25" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1407,8 +1758,20 @@
       <c r="E26" s="3">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="3">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
@@ -1424,8 +1787,20 @@
       <c r="E27" s="3">
         <v>2.8740000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
@@ -1441,8 +1816,20 @@
       <c r="E28" s="3">
         <v>2.552</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="3">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1458,8 +1845,20 @@
       <c r="E29" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="3">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
@@ -1475,8 +1874,20 @@
       <c r="E30" s="3">
         <v>1.8580000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="3">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3">
+        <v>5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1492,8 +1903,20 @@
       <c r="E31" s="3">
         <v>2.0990000000000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+      <c r="H31" s="3">
+        <v>5</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
@@ -1509,8 +1932,20 @@
       <c r="E32" s="3">
         <v>1.2010000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="3">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4</v>
+      </c>
+      <c r="H32" s="3">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
@@ -1526,8 +1961,20 @@
       <c r="E33" s="3">
         <v>1.694</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="3">
+        <v>4</v>
+      </c>
+      <c r="G33" s="3">
+        <v>4</v>
+      </c>
+      <c r="H33" s="3">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
@@ -1543,8 +1990,20 @@
       <c r="E34" s="3">
         <v>1.2010000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="3">
+        <v>5</v>
+      </c>
+      <c r="G34" s="3">
+        <v>4</v>
+      </c>
+      <c r="H34" s="3">
+        <v>4</v>
+      </c>
+      <c r="I34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
@@ -1560,8 +2019,20 @@
       <c r="E35" s="3">
         <v>1.8049999999999899</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="3">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
+        <v>3</v>
+      </c>
+      <c r="H35" s="3">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
@@ -1577,8 +2048,20 @@
       <c r="E36" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="3">
+        <v>4</v>
+      </c>
+      <c r="H36" s="3">
+        <v>5</v>
+      </c>
+      <c r="I36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -1594,8 +2077,20 @@
       <c r="E37" s="3">
         <v>1.034</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="3">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>5</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
@@ -1611,8 +2106,20 @@
       <c r="E38" s="3">
         <v>3.41299999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="3">
+        <v>4</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3">
+        <v>5</v>
+      </c>
+      <c r="I38" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
@@ -1628,8 +2135,20 @@
       <c r="E39" s="3">
         <v>1.242</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="3">
+        <v>4</v>
+      </c>
+      <c r="G39" s="3">
+        <v>5</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
@@ -1645,8 +2164,20 @@
       <c r="E40" s="3">
         <v>1.8560000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="3">
+        <v>4</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3</v>
+      </c>
+      <c r="H40" s="3">
+        <v>5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
@@ -1662,8 +2193,20 @@
       <c r="E41" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="3">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -1679,8 +2222,20 @@
       <c r="E42" s="3">
         <v>1.4259999999999899</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="3">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
@@ -1696,8 +2251,20 @@
       <c r="E43" s="3">
         <v>2.4260000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="3">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
@@ -1713,8 +2280,20 @@
       <c r="E44" s="3">
         <v>1.43599999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="3">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
@@ -1730,8 +2309,20 @@
       <c r="E45" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="3">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1747,8 +2338,20 @@
       <c r="E46" s="3">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="3">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1764,8 +2367,20 @@
       <c r="E47" s="3">
         <v>1.6379999999999899</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="3">
+        <v>5</v>
+      </c>
+      <c r="G47" s="3">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
@@ -1781,8 +2396,20 @@
       <c r="E48" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="3">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1798,8 +2425,20 @@
       <c r="E49" s="3">
         <v>3.4569999999999901</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="3">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1815,8 +2454,20 @@
       <c r="E50" s="3">
         <v>1.43599999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="3">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3">
+        <v>5</v>
+      </c>
+      <c r="H50" s="3">
+        <v>5</v>
+      </c>
+      <c r="I50" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1832,8 +2483,20 @@
       <c r="E51" s="3">
         <v>1.3049999999999899</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="3">
+        <v>5</v>
+      </c>
+      <c r="G51" s="3">
+        <v>5</v>
+      </c>
+      <c r="H51" s="3">
+        <v>5</v>
+      </c>
+      <c r="I51" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1849,8 +2512,20 @@
       <c r="E52" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="3">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1866,8 +2541,20 @@
       <c r="E53" s="3">
         <v>1.8049999999999899</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="3">
+        <v>4</v>
+      </c>
+      <c r="G53" s="3">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3">
+        <v>5</v>
+      </c>
+      <c r="I53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1883,8 +2570,20 @@
       <c r="E54" s="3">
         <v>1.0620000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="3">
+        <v>2</v>
+      </c>
+      <c r="G54" s="3">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1900,8 +2599,20 @@
       <c r="E55" s="3">
         <v>1.472</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="3">
+        <v>5</v>
+      </c>
+      <c r="G55" s="3">
+        <v>4</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3</v>
+      </c>
+      <c r="I55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
@@ -1917,8 +2628,20 @@
       <c r="E56" s="3">
         <v>1.8049999999999899</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="3">
+        <v>3</v>
+      </c>
+      <c r="G56" s="3">
+        <v>5</v>
+      </c>
+      <c r="H56" s="3">
+        <v>3</v>
+      </c>
+      <c r="I56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
@@ -1934,8 +2657,20 @@
       <c r="E57" s="3">
         <v>1.6259999999999899</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="3">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1951,8 +2686,20 @@
       <c r="E58" s="3">
         <v>2.262</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="3">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
@@ -1968,8 +2715,20 @@
       <c r="E59" s="3">
         <v>1.615</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="3">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3</v>
+      </c>
+      <c r="I59" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
@@ -1985,8 +2744,20 @@
       <c r="E60" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="3">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
+        <v>1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
@@ -2002,8 +2773,20 @@
       <c r="E61" s="3">
         <v>2.077</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="3">
+        <v>3</v>
+      </c>
+      <c r="G61" s="3">
+        <v>5</v>
+      </c>
+      <c r="H61" s="3">
+        <v>5</v>
+      </c>
+      <c r="I61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
@@ -2019,8 +2802,20 @@
       <c r="E62" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="3">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>2</v>
+      </c>
+      <c r="I62" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
@@ -2036,8 +2831,20 @@
       <c r="E63" s="3">
         <v>1.421</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="3">
+        <v>5</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>5</v>
+      </c>
+      <c r="I63" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
@@ -2053,8 +2860,20 @@
       <c r="E64" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="3">
+        <v>4</v>
+      </c>
+      <c r="G64" s="3">
+        <v>5</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2</v>
+      </c>
+      <c r="I64" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
@@ -2070,8 +2889,20 @@
       <c r="E65" s="3">
         <v>2.9820000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="3">
+        <v>3</v>
+      </c>
+      <c r="G65" s="3">
+        <v>5</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4</v>
+      </c>
+      <c r="I65" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
@@ -2087,8 +2918,20 @@
       <c r="E66" s="3">
         <v>1.6439999999999899</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="3">
+        <v>3</v>
+      </c>
+      <c r="G66" s="3">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
@@ -2104,8 +2947,20 @@
       <c r="E67" s="3">
         <v>2.923</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="3">
+        <v>2</v>
+      </c>
+      <c r="G67" s="3">
+        <v>5</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="I67" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -2121,8 +2976,20 @@
       <c r="E68" s="3">
         <v>3.2069999999999901</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="3">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3">
+        <v>5</v>
+      </c>
+      <c r="H68" s="3">
+        <v>4</v>
+      </c>
+      <c r="I68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
@@ -2138,8 +3005,20 @@
       <c r="E69" s="3">
         <v>1.0149999999999899</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="3">
+        <v>3</v>
+      </c>
+      <c r="G69" s="3">
+        <v>4</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3</v>
+      </c>
+      <c r="I69" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
@@ -2155,8 +3034,20 @@
       <c r="E70" s="3">
         <v>2.16699999999999</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="3">
+        <v>3</v>
+      </c>
+      <c r="G70" s="3">
+        <v>5</v>
+      </c>
+      <c r="H70" s="3">
+        <v>2</v>
+      </c>
+      <c r="I70" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
@@ -2172,8 +3063,20 @@
       <c r="E71" s="3">
         <v>1.034</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="3">
+        <v>5</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>4</v>
+      </c>
+      <c r="I71" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
@@ -2189,8 +3092,20 @@
       <c r="E72" s="3">
         <v>1.2010000000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="3">
+        <v>3</v>
+      </c>
+      <c r="G72" s="3">
+        <v>4</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
@@ -2206,8 +3121,20 @@
       <c r="E73" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="3">
+        <v>2</v>
+      </c>
+      <c r="G73" s="3">
+        <v>5</v>
+      </c>
+      <c r="H73" s="3">
+        <v>3</v>
+      </c>
+      <c r="I73" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
@@ -2223,8 +3150,20 @@
       <c r="E74" s="3">
         <v>1.542</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="3">
+        <v>4</v>
+      </c>
+      <c r="G74" s="3">
+        <v>4</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2</v>
+      </c>
+      <c r="I74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
@@ -2240,8 +3179,20 @@
       <c r="E75" s="3">
         <v>1.8049999999999899</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="3">
+        <v>5</v>
+      </c>
+      <c r="G75" s="3">
+        <v>2</v>
+      </c>
+      <c r="H75" s="3">
+        <v>3</v>
+      </c>
+      <c r="I75" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
@@ -2257,8 +3208,20 @@
       <c r="E76" s="3">
         <v>2.3450000000000002</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="3">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
@@ -2274,8 +3237,20 @@
       <c r="E77" s="3">
         <v>1.8049999999999899</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="3">
+        <v>2</v>
+      </c>
+      <c r="G77" s="3">
+        <v>5</v>
+      </c>
+      <c r="H77" s="3">
+        <v>3</v>
+      </c>
+      <c r="I77" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
@@ -2291,8 +3266,20 @@
       <c r="E78" s="3">
         <v>1.431</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="3">
+        <v>3</v>
+      </c>
+      <c r="G78" s="3">
+        <v>5</v>
+      </c>
+      <c r="H78" s="3">
+        <v>4</v>
+      </c>
+      <c r="I78" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
@@ -2308,8 +3295,20 @@
       <c r="E79" s="3">
         <v>2.00599999999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="3">
+        <v>2</v>
+      </c>
+      <c r="G79" s="3">
+        <v>5</v>
+      </c>
+      <c r="H79" s="3">
+        <v>2</v>
+      </c>
+      <c r="I79" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
@@ -2325,8 +3324,20 @@
       <c r="E80" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="3">
+        <v>4</v>
+      </c>
+      <c r="G80" s="3">
+        <v>5</v>
+      </c>
+      <c r="H80" s="3">
+        <v>1</v>
+      </c>
+      <c r="I80" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
@@ -2342,8 +3353,20 @@
       <c r="E81" s="3">
         <v>1.6339999999999899</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="3">
+        <v>4</v>
+      </c>
+      <c r="G81" s="3">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1</v>
+      </c>
+      <c r="I81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
@@ -2359,8 +3382,20 @@
       <c r="E82" s="3">
         <v>2.7010000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="3">
+        <v>3</v>
+      </c>
+      <c r="G82" s="3">
+        <v>5</v>
+      </c>
+      <c r="H82" s="3">
+        <v>3</v>
+      </c>
+      <c r="I82" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
@@ -2376,8 +3411,20 @@
       <c r="E83" s="3">
         <v>1.8049999999999899</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="3">
+        <v>2</v>
+      </c>
+      <c r="G83" s="3">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
+        <v>2</v>
+      </c>
+      <c r="I83" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
@@ -2393,8 +3440,20 @@
       <c r="E84" s="3">
         <v>1.462</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="3">
+        <v>3</v>
+      </c>
+      <c r="G84" s="3">
+        <v>5</v>
+      </c>
+      <c r="H84" s="3">
+        <v>2</v>
+      </c>
+      <c r="I84" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
@@ -2410,8 +3469,20 @@
       <c r="E85" s="3">
         <v>3.16</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="3">
+        <v>3</v>
+      </c>
+      <c r="G85" s="3">
+        <v>4</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
@@ -2427,8 +3498,20 @@
       <c r="E86" s="3">
         <v>1.6379999999999899</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="3">
+        <v>3</v>
+      </c>
+      <c r="G86" s="3">
+        <v>5</v>
+      </c>
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
@@ -2444,8 +3527,20 @@
       <c r="E87" s="3">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="3">
+        <v>2</v>
+      </c>
+      <c r="G87" s="3">
+        <v>5</v>
+      </c>
+      <c r="H87" s="3">
+        <v>3</v>
+      </c>
+      <c r="I87" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
@@ -2461,8 +3556,20 @@
       <c r="E88" s="3">
         <v>1.7390000000000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="3">
+        <v>2</v>
+      </c>
+      <c r="G88" s="3">
+        <v>5</v>
+      </c>
+      <c r="H88" s="3">
+        <v>3</v>
+      </c>
+      <c r="I88" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
@@ -2478,8 +3585,20 @@
       <c r="E89" s="3">
         <v>1.0149999999999899</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="3">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
@@ -2495,8 +3614,20 @@
       <c r="E90" s="3">
         <v>2.8610000000000002</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="3">
+        <v>3</v>
+      </c>
+      <c r="G90" s="3">
+        <v>5</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+      <c r="I90" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
@@ -2512,8 +3643,20 @@
       <c r="E91" s="3">
         <v>1.6379999999999899</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="3">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
@@ -2529,8 +3672,20 @@
       <c r="E92" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="3">
+        <v>2</v>
+      </c>
+      <c r="G92" s="3">
+        <v>5</v>
+      </c>
+      <c r="H92" s="3">
+        <v>3</v>
+      </c>
+      <c r="I92" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
@@ -2546,8 +3701,20 @@
       <c r="E93" s="3">
         <v>2.6419999999999901</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="3">
+        <v>2</v>
+      </c>
+      <c r="G93" s="3">
+        <v>3</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3</v>
+      </c>
+      <c r="I93" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
@@ -2563,8 +3730,20 @@
       <c r="E94" s="3">
         <v>2.00599999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="3">
+        <v>2</v>
+      </c>
+      <c r="G94" s="3">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
@@ -2580,8 +3759,20 @@
       <c r="E95" s="3">
         <v>1.2010000000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="3">
+        <v>2</v>
+      </c>
+      <c r="G95" s="3">
+        <v>5</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
@@ -2597,8 +3788,20 @@
       <c r="E96" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="3">
+        <v>2</v>
+      </c>
+      <c r="G96" s="3">
+        <v>5</v>
+      </c>
+      <c r="H96" s="3">
+        <v>3</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
@@ -2614,8 +3817,20 @@
       <c r="E97" s="3">
         <v>1.891</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
+      <c r="G97" s="3">
+        <v>5</v>
+      </c>
+      <c r="H97" s="3">
+        <v>3</v>
+      </c>
+      <c r="I97" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
@@ -2631,8 +3846,20 @@
       <c r="E98" s="3">
         <v>2.2149999999999901</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="3">
+        <v>3</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3">
+        <v>3</v>
+      </c>
+      <c r="I98" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
@@ -2648,8 +3875,20 @@
       <c r="E99" s="3">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="3">
+        <v>3</v>
+      </c>
+      <c r="G99" s="3">
+        <v>5</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
@@ -2665,8 +3904,20 @@
       <c r="E100" s="3">
         <v>1.2010000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="3">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
@@ -2682,8 +3933,20 @@
       <c r="E101" s="3">
         <v>1.43599999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="3">
+        <v>2</v>
+      </c>
+      <c r="G101" s="3">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
@@ -2699,8 +3962,20 @@
       <c r="E102" s="3">
         <v>1.0449999999999899</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="3">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+      <c r="I102" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
@@ -2716,8 +3991,20 @@
       <c r="E103" s="3">
         <v>1.008</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="3">
+        <v>5</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="3">
+        <v>4</v>
+      </c>
+      <c r="I103" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
@@ -2733,8 +4020,20 @@
       <c r="E104" s="3">
         <v>2.00599999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="3">
+        <v>2</v>
+      </c>
+      <c r="G104" s="3">
+        <v>4</v>
+      </c>
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
+      <c r="I104" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
@@ -2750,8 +4049,20 @@
       <c r="E105" s="3">
         <v>2.839</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="3">
+        <v>2</v>
+      </c>
+      <c r="G105" s="3">
+        <v>5</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="I105" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
@@ -2767,8 +4078,20 @@
       <c r="E106" s="3">
         <v>2.806</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="3">
+        <v>2</v>
+      </c>
+      <c r="G106" s="3">
+        <v>5</v>
+      </c>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+      <c r="I106" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
@@ -2784,8 +4107,20 @@
       <c r="E107" s="3">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="3">
+        <v>3</v>
+      </c>
+      <c r="G107" s="3">
+        <v>4</v>
+      </c>
+      <c r="H107" s="3">
+        <v>2</v>
+      </c>
+      <c r="I107" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
@@ -2801,8 +4136,20 @@
       <c r="E108" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="3">
+        <v>2</v>
+      </c>
+      <c r="G108" s="3">
+        <v>4</v>
+      </c>
+      <c r="H108" s="3">
+        <v>3</v>
+      </c>
+      <c r="I108" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
@@ -2818,8 +4165,20 @@
       <c r="E109" s="3">
         <v>1.2350000000000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="3">
+        <v>3</v>
+      </c>
+      <c r="G109" s="3">
+        <v>5</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
@@ -2835,8 +4194,20 @@
       <c r="E110" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="3">
+        <v>2</v>
+      </c>
+      <c r="G110" s="3">
+        <v>4</v>
+      </c>
+      <c r="H110" s="3">
+        <v>3</v>
+      </c>
+      <c r="I110" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
@@ -2852,8 +4223,20 @@
       <c r="E111" s="3">
         <v>3.1720000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="3">
+        <v>3</v>
+      </c>
+      <c r="G111" s="3">
+        <v>4</v>
+      </c>
+      <c r="H111" s="3">
+        <v>2</v>
+      </c>
+      <c r="I111" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
@@ -2869,8 +4252,20 @@
       <c r="E112" s="3">
         <v>2.6120000000000001</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="3">
+        <v>3</v>
+      </c>
+      <c r="G112" s="3">
+        <v>1</v>
+      </c>
+      <c r="H112" s="3">
+        <v>5</v>
+      </c>
+      <c r="I112" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
@@ -2886,8 +4281,20 @@
       <c r="E113" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="3">
+        <v>5</v>
+      </c>
+      <c r="G113" s="3">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>1</v>
+      </c>
+      <c r="I113" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
@@ -2903,8 +4310,20 @@
       <c r="E114" s="3">
         <v>1.605</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="3">
+        <v>2</v>
+      </c>
+      <c r="G114" s="3">
+        <v>5</v>
+      </c>
+      <c r="H114" s="3">
+        <v>1</v>
+      </c>
+      <c r="I114" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
@@ -2920,8 +4339,20 @@
       <c r="E115" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="3">
+        <v>5</v>
+      </c>
+      <c r="G115" s="3">
+        <v>1</v>
+      </c>
+      <c r="H115" s="3">
+        <v>1</v>
+      </c>
+      <c r="I115" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
@@ -2937,8 +4368,20 @@
       <c r="E116" s="3">
         <v>1.42</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="3">
+        <v>5</v>
+      </c>
+      <c r="G116" s="3">
+        <v>1</v>
+      </c>
+      <c r="H116" s="3">
+        <v>1</v>
+      </c>
+      <c r="I116" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
@@ -2954,8 +4397,20 @@
       <c r="E117" s="3">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="3">
+        <v>2</v>
+      </c>
+      <c r="G117" s="3">
+        <v>5</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+      <c r="I117" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
@@ -2971,8 +4426,20 @@
       <c r="E118" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="3">
+        <v>3</v>
+      </c>
+      <c r="G118" s="3">
+        <v>5</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+      <c r="I118" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
@@ -2988,8 +4455,20 @@
       <c r="E119" s="3">
         <v>1.0069999999999999</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="3">
+        <v>3</v>
+      </c>
+      <c r="G119" s="3">
+        <v>5</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+      <c r="I119" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
@@ -3005,8 +4484,20 @@
       <c r="E120" s="3">
         <v>1.246</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="3">
+        <v>3</v>
+      </c>
+      <c r="G120" s="3">
+        <v>5</v>
+      </c>
+      <c r="H120" s="3">
+        <v>1</v>
+      </c>
+      <c r="I120" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
@@ -3022,8 +4513,20 @@
       <c r="E121" s="3">
         <v>1.62</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="3">
+        <v>2</v>
+      </c>
+      <c r="G121" s="3">
+        <v>5</v>
+      </c>
+      <c r="H121" s="3">
+        <v>2</v>
+      </c>
+      <c r="I121" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
@@ -3039,8 +4542,20 @@
       <c r="E122" s="3">
         <v>1.0069999999999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="3">
+        <v>4</v>
+      </c>
+      <c r="G122" s="3">
+        <v>4</v>
+      </c>
+      <c r="H122" s="3">
+        <v>2</v>
+      </c>
+      <c r="I122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
@@ -3056,8 +4571,20 @@
       <c r="E123" s="3">
         <v>2.8439999999999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="3">
+        <v>2</v>
+      </c>
+      <c r="G123" s="3">
+        <v>4</v>
+      </c>
+      <c r="H123" s="3">
+        <v>2</v>
+      </c>
+      <c r="I123" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
@@ -3073,8 +4600,20 @@
       <c r="E124" s="3">
         <v>1.8580000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="3">
+        <v>2</v>
+      </c>
+      <c r="G124" s="3">
+        <v>3</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
+      <c r="I124" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
@@ -3090,8 +4629,20 @@
       <c r="E125" s="3">
         <v>2.4249999999999998</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="3">
+        <v>2</v>
+      </c>
+      <c r="G125" s="3">
+        <v>5</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1</v>
+      </c>
+      <c r="I125" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
@@ -3107,8 +4658,20 @@
       <c r="E126" s="3">
         <v>1.4179999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="3">
+        <v>2</v>
+      </c>
+      <c r="G126" s="3">
+        <v>5</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
+      <c r="I126" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
@@ -3124,8 +4687,20 @@
       <c r="E127" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="3">
+        <v>2</v>
+      </c>
+      <c r="G127" s="3">
+        <v>5</v>
+      </c>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+      <c r="I127" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>126</v>
       </c>
@@ -3141,8 +4716,20 @@
       <c r="E128" s="3">
         <v>1.413</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="3">
+        <v>2</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+      <c r="H128" s="3">
+        <v>5</v>
+      </c>
+      <c r="I128" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>127</v>
       </c>
@@ -3158,8 +4745,20 @@
       <c r="E129" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="3">
+        <v>2</v>
+      </c>
+      <c r="G129" s="3">
+        <v>5</v>
+      </c>
+      <c r="H129" s="3">
+        <v>1</v>
+      </c>
+      <c r="I129" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>128</v>
       </c>
@@ -3175,8 +4774,20 @@
       <c r="E130" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="3">
+        <v>2</v>
+      </c>
+      <c r="G130" s="3">
+        <v>4</v>
+      </c>
+      <c r="H130" s="3">
+        <v>2</v>
+      </c>
+      <c r="I130" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>129</v>
       </c>
@@ -3192,8 +4803,20 @@
       <c r="E131" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>4</v>
+      </c>
+      <c r="H131" s="3">
+        <v>3</v>
+      </c>
+      <c r="I131" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>130</v>
       </c>
@@ -3209,8 +4832,20 @@
       <c r="E132" s="3">
         <v>3.4740000000000002</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="3">
+        <v>3</v>
+      </c>
+      <c r="G132" s="3">
+        <v>4</v>
+      </c>
+      <c r="H132" s="3">
+        <v>1</v>
+      </c>
+      <c r="I132" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>131</v>
       </c>
@@ -3226,8 +4861,20 @@
       <c r="E133" s="3">
         <v>1.613</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="3">
+        <v>2</v>
+      </c>
+      <c r="G133" s="3">
+        <v>4</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+      <c r="I133" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>132</v>
       </c>
@@ -3243,8 +4890,20 @@
       <c r="E134" s="3">
         <v>1.8049999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="3">
+        <v>3</v>
+      </c>
+      <c r="G134" s="3">
+        <v>3</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1</v>
+      </c>
+      <c r="I134" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>133</v>
       </c>
@@ -3260,8 +4919,20 @@
       <c r="E135" s="3">
         <v>3.2669999999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="3">
+        <v>3</v>
+      </c>
+      <c r="G135" s="3">
+        <v>3</v>
+      </c>
+      <c r="H135" s="3">
+        <v>3</v>
+      </c>
+      <c r="I135" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>134</v>
       </c>
@@ -3277,8 +4948,20 @@
       <c r="E136" s="3">
         <v>1.218</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="3">
+        <v>3</v>
+      </c>
+      <c r="G136" s="3">
+        <v>4</v>
+      </c>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>135</v>
       </c>
@@ -3294,8 +4977,20 @@
       <c r="E137" s="3">
         <v>1.855</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="3">
+        <v>2</v>
+      </c>
+      <c r="G137" s="3">
+        <v>4</v>
+      </c>
+      <c r="H137" s="3">
+        <v>2</v>
+      </c>
+      <c r="I137" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>136</v>
       </c>
@@ -3311,8 +5006,20 @@
       <c r="E138" s="3">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="3">
+        <v>2</v>
+      </c>
+      <c r="G138" s="3">
+        <v>5</v>
+      </c>
+      <c r="H138" s="3">
+        <v>1</v>
+      </c>
+      <c r="I138" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>137</v>
       </c>
@@ -3328,8 +5035,20 @@
       <c r="E139" s="3">
         <v>1.2210000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="3">
+        <v>2</v>
+      </c>
+      <c r="G139" s="3">
+        <v>4</v>
+      </c>
+      <c r="H139" s="3">
+        <v>2</v>
+      </c>
+      <c r="I139" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>138</v>
       </c>
@@ -3345,8 +5064,20 @@
       <c r="E140" s="3">
         <v>1.0049999999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="3">
+        <v>3</v>
+      </c>
+      <c r="G140" s="3">
+        <v>3</v>
+      </c>
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
+      <c r="I140" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>139</v>
       </c>
@@ -3362,8 +5093,20 @@
       <c r="E141" s="3">
         <v>3.8279999999999998</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="3">
+        <v>2</v>
+      </c>
+      <c r="G141" s="3">
+        <v>4</v>
+      </c>
+      <c r="H141" s="3">
+        <v>2</v>
+      </c>
+      <c r="I141" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>140</v>
       </c>
@@ -3379,8 +5122,20 @@
       <c r="E142" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="3">
+        <v>3</v>
+      </c>
+      <c r="G142" s="3">
+        <v>4</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+      <c r="I142" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>141</v>
       </c>
@@ -3396,8 +5151,20 @@
       <c r="E143" s="3">
         <v>2.0569999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="3">
+        <v>2</v>
+      </c>
+      <c r="G143" s="3">
+        <v>4</v>
+      </c>
+      <c r="H143" s="3">
+        <v>1</v>
+      </c>
+      <c r="I143" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>142</v>
       </c>
@@ -3413,8 +5180,20 @@
       <c r="E144" s="3">
         <v>1.4790000000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="3">
+        <v>2</v>
+      </c>
+      <c r="G144" s="3">
+        <v>1</v>
+      </c>
+      <c r="H144" s="3">
+        <v>1</v>
+      </c>
+      <c r="I144" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>143</v>
       </c>
@@ -3430,8 +5209,20 @@
       <c r="E145" s="3">
         <v>1.9159999999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>4</v>
+      </c>
+      <c r="H145" s="3">
+        <v>2</v>
+      </c>
+      <c r="I145" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>144</v>
       </c>
@@ -3447,8 +5238,20 @@
       <c r="E146" s="3">
         <v>1.409</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>3</v>
+      </c>
+      <c r="H146" s="3">
+        <v>4</v>
+      </c>
+      <c r="I146" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>145</v>
       </c>
@@ -3464,8 +5267,20 @@
       <c r="E147" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>4</v>
+      </c>
+      <c r="H147" s="3">
+        <v>2</v>
+      </c>
+      <c r="I147" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>146</v>
       </c>
@@ -3481,8 +5296,20 @@
       <c r="E148" s="3">
         <v>1.8180000000000001</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="3">
+        <v>2</v>
+      </c>
+      <c r="G148" s="3">
+        <v>4</v>
+      </c>
+      <c r="H148" s="3">
+        <v>3</v>
+      </c>
+      <c r="I148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>147</v>
       </c>
@@ -3498,8 +5325,20 @@
       <c r="E149" s="3">
         <v>1.2010000000000001</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="3">
+        <v>2</v>
+      </c>
+      <c r="G149" s="3">
+        <v>3</v>
+      </c>
+      <c r="H149" s="3">
+        <v>3</v>
+      </c>
+      <c r="I149" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>148</v>
       </c>
@@ -3515,8 +5354,20 @@
       <c r="E150" s="3">
         <v>1.82</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="3">
+        <v>2</v>
+      </c>
+      <c r="G150" s="3">
+        <v>4</v>
+      </c>
+      <c r="H150" s="3">
+        <v>1</v>
+      </c>
+      <c r="I150" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>149</v>
       </c>
@@ -3532,8 +5383,20 @@
       <c r="E151" s="3">
         <v>3.1589999999999998</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>4</v>
+      </c>
+      <c r="H151" s="3">
+        <v>2</v>
+      </c>
+      <c r="I151" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>150</v>
       </c>
@@ -3549,8 +5412,20 @@
       <c r="E152" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="3">
+        <v>3</v>
+      </c>
+      <c r="G152" s="3">
+        <v>2</v>
+      </c>
+      <c r="H152" s="3">
+        <v>3</v>
+      </c>
+      <c r="I152" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>151</v>
       </c>
@@ -3566,8 +5441,20 @@
       <c r="E153" s="3">
         <v>1.7649999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="3">
+        <v>2</v>
+      </c>
+      <c r="G153" s="3">
+        <v>2</v>
+      </c>
+      <c r="H153" s="3">
+        <v>3</v>
+      </c>
+      <c r="I153" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>152</v>
       </c>
@@ -3583,8 +5470,20 @@
       <c r="E154" s="3">
         <v>2.7650000000000001</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="3">
+        <v>2</v>
+      </c>
+      <c r="G154" s="3">
+        <v>2</v>
+      </c>
+      <c r="H154" s="3">
+        <v>1</v>
+      </c>
+      <c r="I154" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>153</v>
       </c>
@@ -3600,8 +5499,20 @@
       <c r="E155" s="3">
         <v>1.464</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="3">
+        <v>2</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3">
+        <v>2</v>
+      </c>
+      <c r="I155" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
         <v>154</v>
       </c>
@@ -3617,8 +5528,20 @@
       <c r="E156" s="3">
         <v>1.042</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>4</v>
+      </c>
+      <c r="H156" s="3">
+        <v>2</v>
+      </c>
+      <c r="I156" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
         <v>155</v>
       </c>
@@ -3634,8 +5557,20 @@
       <c r="E157" s="3">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="3">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>4</v>
+      </c>
+      <c r="H157" s="3">
+        <v>1</v>
+      </c>
+      <c r="I157" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>156</v>
       </c>
@@ -3651,8 +5586,20 @@
       <c r="E158" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>5</v>
+      </c>
+      <c r="H158" s="3">
+        <v>1</v>
+      </c>
+      <c r="I158" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>157</v>
       </c>
@@ -3668,8 +5615,20 @@
       <c r="E159" s="3">
         <v>1.8049999999999999</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>5</v>
+      </c>
+      <c r="H159" s="3">
+        <v>1</v>
+      </c>
+      <c r="I159" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>158</v>
       </c>
@@ -3685,8 +5644,20 @@
       <c r="E160" s="3">
         <v>2.1030000000000002</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="3">
+        <v>3</v>
+      </c>
+      <c r="G160" s="3">
+        <v>4</v>
+      </c>
+      <c r="H160" s="3">
+        <v>1</v>
+      </c>
+      <c r="I160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>159</v>
       </c>
@@ -3702,8 +5673,20 @@
       <c r="E161" s="3">
         <v>1.403</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="3">
+        <v>2</v>
+      </c>
+      <c r="G161" s="3">
+        <v>4</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+      <c r="I161" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2" t="s">
         <v>160</v>
       </c>
@@ -3719,8 +5702,20 @@
       <c r="E162" s="3">
         <v>3.5590000000000002</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>5</v>
+      </c>
+      <c r="H162" s="3">
+        <v>1</v>
+      </c>
+      <c r="I162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2" t="s">
         <v>161</v>
       </c>
@@ -3736,8 +5731,20 @@
       <c r="E163" s="3">
         <v>1.6040000000000001</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="3">
+        <v>2</v>
+      </c>
+      <c r="G163" s="3">
+        <v>4</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+      <c r="I163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>162</v>
       </c>
@@ -3753,6 +5760,1420 @@
       <c r="E164" s="3">
         <v>2.1120000000000001</v>
       </c>
+      <c r="F164" s="3">
+        <v>2</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+      <c r="H164" s="3">
+        <v>3</v>
+      </c>
+      <c r="I164" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F165" s="3">
+        <v>3</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+      <c r="H165" s="3">
+        <v>2</v>
+      </c>
+      <c r="I165" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F166" s="3">
+        <v>3</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3">
+        <v>2</v>
+      </c>
+      <c r="I166" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F167" s="3">
+        <v>3</v>
+      </c>
+      <c r="G167" s="3">
+        <v>2</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+      <c r="I167" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>4</v>
+      </c>
+      <c r="H168" s="3">
+        <v>1</v>
+      </c>
+      <c r="I168" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F169" s="3">
+        <v>2</v>
+      </c>
+      <c r="G169" s="3">
+        <v>4</v>
+      </c>
+      <c r="H169" s="3">
+        <v>1</v>
+      </c>
+      <c r="I169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>4</v>
+      </c>
+      <c r="H170" s="3">
+        <v>2</v>
+      </c>
+      <c r="I170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F171" s="3">
+        <v>2</v>
+      </c>
+      <c r="G171" s="3">
+        <v>4</v>
+      </c>
+      <c r="H171" s="3">
+        <v>1</v>
+      </c>
+      <c r="I171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F172" s="3">
+        <v>2</v>
+      </c>
+      <c r="G172" s="3">
+        <v>3</v>
+      </c>
+      <c r="H172" s="3">
+        <v>1</v>
+      </c>
+      <c r="I172" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F173" s="3">
+        <v>3</v>
+      </c>
+      <c r="G173" s="3">
+        <v>1</v>
+      </c>
+      <c r="H173" s="3">
+        <v>1</v>
+      </c>
+      <c r="I173" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F174" s="3">
+        <v>3</v>
+      </c>
+      <c r="G174" s="3">
+        <v>1</v>
+      </c>
+      <c r="H174" s="3">
+        <v>1</v>
+      </c>
+      <c r="I174" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>4</v>
+      </c>
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+      <c r="I175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F176" s="3">
+        <v>3</v>
+      </c>
+      <c r="G176" s="3">
+        <v>1</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+      <c r="I176" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F177" s="3">
+        <v>2</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="3">
+        <v>3</v>
+      </c>
+      <c r="I177" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="3">
+        <v>1</v>
+      </c>
+      <c r="I178" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>3</v>
+      </c>
+      <c r="H179" s="3">
+        <v>3</v>
+      </c>
+      <c r="I179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F180" s="3">
+        <v>2</v>
+      </c>
+      <c r="G180" s="3">
+        <v>1</v>
+      </c>
+      <c r="H180" s="3">
+        <v>2</v>
+      </c>
+      <c r="I180" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F181" s="3">
+        <v>3</v>
+      </c>
+      <c r="G181" s="3">
+        <v>1</v>
+      </c>
+      <c r="H181" s="3">
+        <v>1</v>
+      </c>
+      <c r="I181" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F182" s="3">
+        <v>3</v>
+      </c>
+      <c r="G182" s="3">
+        <v>1</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+      <c r="I182" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>3</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+      <c r="I183" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>4</v>
+      </c>
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+      <c r="I184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F185" s="3">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>4</v>
+      </c>
+      <c r="H185" s="3">
+        <v>1</v>
+      </c>
+      <c r="I185" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F186" s="3">
+        <v>2</v>
+      </c>
+      <c r="G186" s="3">
+        <v>1</v>
+      </c>
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+      <c r="I186" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F187" s="3">
+        <v>2</v>
+      </c>
+      <c r="G187" s="3">
+        <v>1</v>
+      </c>
+      <c r="H187" s="3">
+        <v>1</v>
+      </c>
+      <c r="I187" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F188" s="3">
+        <v>2</v>
+      </c>
+      <c r="G188" s="3">
+        <v>1</v>
+      </c>
+      <c r="H188" s="3">
+        <v>1</v>
+      </c>
+      <c r="I188" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F189" s="3">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>3</v>
+      </c>
+      <c r="H189" s="3">
+        <v>1</v>
+      </c>
+      <c r="I189" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F190" s="3">
+        <v>2</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1</v>
+      </c>
+      <c r="I190" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F191" s="3">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>3</v>
+      </c>
+      <c r="H191" s="3">
+        <v>2</v>
+      </c>
+      <c r="I191" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F192" s="3">
+        <v>2</v>
+      </c>
+      <c r="G192" s="3">
+        <v>1</v>
+      </c>
+      <c r="H192" s="3">
+        <v>1</v>
+      </c>
+      <c r="I192" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F193" s="3">
+        <v>2</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1</v>
+      </c>
+      <c r="H193" s="3">
+        <v>3</v>
+      </c>
+      <c r="I193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <v>1</v>
+      </c>
+      <c r="H194" s="3">
+        <v>3</v>
+      </c>
+      <c r="I194" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F195" s="3">
+        <v>2</v>
+      </c>
+      <c r="G195" s="3">
+        <v>1</v>
+      </c>
+      <c r="H195" s="3">
+        <v>1</v>
+      </c>
+      <c r="I195" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F196" s="3">
+        <v>2</v>
+      </c>
+      <c r="G196" s="3">
+        <v>1</v>
+      </c>
+      <c r="H196" s="3">
+        <v>1</v>
+      </c>
+      <c r="I196" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>3</v>
+      </c>
+      <c r="H197" s="3">
+        <v>1</v>
+      </c>
+      <c r="I197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F198" s="3">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>3</v>
+      </c>
+      <c r="H198" s="3">
+        <v>1</v>
+      </c>
+      <c r="I198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>3</v>
+      </c>
+      <c r="H199" s="3">
+        <v>1</v>
+      </c>
+      <c r="I199" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F200" s="3">
+        <v>2</v>
+      </c>
+      <c r="G200" s="3">
+        <v>2</v>
+      </c>
+      <c r="H200" s="3">
+        <v>1</v>
+      </c>
+      <c r="I200" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F201" s="3">
+        <v>2</v>
+      </c>
+      <c r="G201" s="3">
+        <v>2</v>
+      </c>
+      <c r="H201" s="3">
+        <v>1</v>
+      </c>
+      <c r="I201" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F202" s="3">
+        <v>2</v>
+      </c>
+      <c r="G202" s="3">
+        <v>1</v>
+      </c>
+      <c r="H202" s="3">
+        <v>1</v>
+      </c>
+      <c r="I202" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F203" s="3">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>2</v>
+      </c>
+      <c r="H203" s="3">
+        <v>1</v>
+      </c>
+      <c r="I203" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>2</v>
+      </c>
+      <c r="H204" s="3">
+        <v>1</v>
+      </c>
+      <c r="I204" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F205" s="3">
+        <v>2</v>
+      </c>
+      <c r="G205" s="3">
+        <v>2</v>
+      </c>
+      <c r="H205" s="3">
+        <v>1</v>
+      </c>
+      <c r="I205" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F206" s="3">
+        <v>2</v>
+      </c>
+      <c r="G206" s="3">
+        <v>1</v>
+      </c>
+      <c r="H206" s="3">
+        <v>1</v>
+      </c>
+      <c r="I206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F207" s="3">
+        <v>2</v>
+      </c>
+      <c r="G207" s="3">
+        <v>1</v>
+      </c>
+      <c r="H207" s="3">
+        <v>1</v>
+      </c>
+      <c r="I207" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F208" s="3">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>2</v>
+      </c>
+      <c r="H208" s="3">
+        <v>1</v>
+      </c>
+      <c r="I208" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F209" s="3">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>2</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1</v>
+      </c>
+      <c r="I209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>2</v>
+      </c>
+      <c r="H210" s="3">
+        <v>1</v>
+      </c>
+      <c r="I210" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F211" s="3">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+      <c r="H211" s="3">
+        <v>1</v>
+      </c>
+      <c r="I211" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>2</v>
+      </c>
+      <c r="H212" s="3">
+        <v>1</v>
+      </c>
+      <c r="I212" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F213" s="3">
+        <v>2</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+      <c r="H213" s="3">
+        <v>1</v>
+      </c>
+      <c r="I213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F214" s="3">
+        <v>2</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
+      <c r="I214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F215" s="3">
+        <v>2</v>
+      </c>
+      <c r="G215" s="3">
+        <v>1</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
+      <c r="I215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F216" s="3">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>2</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
+      <c r="I216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F217" s="3">
+        <v>2</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1</v>
+      </c>
+      <c r="H217" s="3">
+        <v>1</v>
+      </c>
+      <c r="I217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F218" s="3">
+        <v>2</v>
+      </c>
+      <c r="G218" s="3">
+        <v>1</v>
+      </c>
+      <c r="H218" s="3">
+        <v>1</v>
+      </c>
+      <c r="I218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F219" s="3">
+        <v>2</v>
+      </c>
+      <c r="G219" s="3">
+        <v>1</v>
+      </c>
+      <c r="H219" s="3">
+        <v>1</v>
+      </c>
+      <c r="I219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>2</v>
+      </c>
+      <c r="H220" s="3">
+        <v>1</v>
+      </c>
+      <c r="I220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F221" s="3">
+        <v>2</v>
+      </c>
+      <c r="G221" s="3">
+        <v>1</v>
+      </c>
+      <c r="H221" s="3">
+        <v>1</v>
+      </c>
+      <c r="I221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F222" s="3">
+        <v>2</v>
+      </c>
+      <c r="G222" s="3">
+        <v>1</v>
+      </c>
+      <c r="H222" s="3">
+        <v>1</v>
+      </c>
+      <c r="I222" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F223" s="3">
+        <v>1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>1</v>
+      </c>
+      <c r="H223" s="3">
+        <v>1</v>
+      </c>
+      <c r="I223" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F224" s="3">
+        <v>2</v>
+      </c>
+      <c r="G224" s="3">
+        <v>1</v>
+      </c>
+      <c r="H224" s="3">
+        <v>1</v>
+      </c>
+      <c r="I224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1</v>
+      </c>
+      <c r="H225" s="3">
+        <v>1</v>
+      </c>
+      <c r="I225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>1</v>
+      </c>
+      <c r="H226" s="3">
+        <v>1</v>
+      </c>
+      <c r="I226" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1</v>
+      </c>
+      <c r="H227" s="3">
+        <v>1</v>
+      </c>
+      <c r="I227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>1</v>
+      </c>
+      <c r="H228" s="3">
+        <v>1</v>
+      </c>
+      <c r="I228" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F229" s="3">
+        <v>1</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+      <c r="H229" s="3">
+        <v>1</v>
+      </c>
+      <c r="I229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7"/>
+      <c r="I230" s="7"/>
+    </row>
+    <row r="231" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F231" s="8"/>
+      <c r="G231" s="8"/>
+      <c r="H231" s="8"/>
+      <c r="I231" s="8"/>
+    </row>
+    <row r="232" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F232" s="8"/>
+      <c r="G232" s="8"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="8"/>
+    </row>
+    <row r="233" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F233" s="8"/>
+      <c r="G233" s="8"/>
+      <c r="H233" s="8"/>
+      <c r="I233" s="8"/>
+    </row>
+    <row r="234" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F234" s="8"/>
+      <c r="G234" s="8"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="8"/>
+    </row>
+    <row r="235" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F235" s="8"/>
+      <c r="G235" s="8"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="8"/>
+    </row>
+    <row r="236" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="8"/>
+    </row>
+    <row r="237" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F237" s="8"/>
+      <c r="G237" s="8"/>
+      <c r="H237" s="8"/>
+      <c r="I237" s="8"/>
+    </row>
+    <row r="238" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F238" s="8"/>
+      <c r="G238" s="8"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="8"/>
+    </row>
+    <row r="239" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F239" s="8"/>
+      <c r="G239" s="8"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="8"/>
+    </row>
+    <row r="240" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F240" s="8"/>
+      <c r="G240" s="8"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="8"/>
+    </row>
+    <row r="241" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="8"/>
+      <c r="I241" s="8"/>
+    </row>
+    <row r="242" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F242" s="8"/>
+      <c r="G242" s="8"/>
+      <c r="H242" s="8"/>
+      <c r="I242" s="8"/>
+    </row>
+    <row r="243" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F243" s="8"/>
+      <c r="G243" s="8"/>
+      <c r="H243" s="8"/>
+      <c r="I243" s="8"/>
+    </row>
+    <row r="244" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
+      <c r="H244" s="8"/>
+      <c r="I244" s="8"/>
+    </row>
+    <row r="245" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F245" s="8"/>
+      <c r="G245" s="8"/>
+      <c r="H245" s="8"/>
+      <c r="I245" s="8"/>
+    </row>
+    <row r="246" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F246" s="8"/>
+      <c r="G246" s="8"/>
+      <c r="H246" s="8"/>
+      <c r="I246" s="8"/>
+    </row>
+    <row r="247" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F247" s="8"/>
+      <c r="G247" s="8"/>
+      <c r="H247" s="8"/>
+      <c r="I247" s="8"/>
+    </row>
+    <row r="248" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F248" s="8"/>
+      <c r="G248" s="8"/>
+      <c r="H248" s="8"/>
+      <c r="I248" s="8"/>
+    </row>
+    <row r="249" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F249" s="8"/>
+      <c r="G249" s="8"/>
+      <c r="H249" s="8"/>
+      <c r="I249" s="8"/>
+    </row>
+    <row r="250" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F250" s="8"/>
+      <c r="G250" s="8"/>
+      <c r="H250" s="8"/>
+      <c r="I250" s="8"/>
+    </row>
+    <row r="251" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+    </row>
+    <row r="252" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F252" s="8"/>
+      <c r="G252" s="8"/>
+      <c r="H252" s="8"/>
+      <c r="I252" s="8"/>
+    </row>
+    <row r="253" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F253" s="8"/>
+      <c r="G253" s="8"/>
+      <c r="H253" s="8"/>
+      <c r="I253" s="8"/>
+    </row>
+    <row r="254" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F254" s="8"/>
+      <c r="G254" s="8"/>
+      <c r="H254" s="8"/>
+      <c r="I254" s="8"/>
+    </row>
+    <row r="255" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
+    </row>
+    <row r="256" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
+    </row>
+    <row r="257" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F257" s="8"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="8"/>
+      <c r="I257" s="8"/>
+    </row>
+    <row r="258" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
+    </row>
+    <row r="259" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F259" s="8"/>
+      <c r="G259" s="8"/>
+      <c r="H259" s="8"/>
+      <c r="I259" s="8"/>
+    </row>
+    <row r="260" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F260" s="8"/>
+      <c r="G260" s="8"/>
+      <c r="H260" s="8"/>
+      <c r="I260" s="8"/>
+    </row>
+    <row r="261" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F261" s="8"/>
+      <c r="G261" s="8"/>
+      <c r="H261" s="8"/>
+      <c r="I261" s="8"/>
+    </row>
+    <row r="262" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F262" s="8"/>
+      <c r="G262" s="8"/>
+      <c r="H262" s="8"/>
+      <c r="I262" s="8"/>
+    </row>
+    <row r="263" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F263" s="8"/>
+      <c r="G263" s="8"/>
+      <c r="H263" s="8"/>
+      <c r="I263" s="8"/>
+    </row>
+    <row r="264" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F264" s="8"/>
+      <c r="G264" s="8"/>
+      <c r="H264" s="8"/>
+      <c r="I264" s="8"/>
+    </row>
+    <row r="265" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="8"/>
+      <c r="I265" s="8"/>
+    </row>
+    <row r="266" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F266" s="8"/>
+      <c r="G266" s="8"/>
+      <c r="H266" s="8"/>
+      <c r="I266" s="8"/>
+    </row>
+    <row r="267" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F267" s="8"/>
+      <c r="G267" s="8"/>
+      <c r="H267" s="8"/>
+      <c r="I267" s="8"/>
+    </row>
+    <row r="268" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
+      <c r="H268" s="8"/>
+      <c r="I268" s="8"/>
+    </row>
+    <row r="269" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F269" s="8"/>
+      <c r="G269" s="8"/>
+      <c r="H269" s="8"/>
+      <c r="I269" s="8"/>
+    </row>
+    <row r="270" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F270" s="8"/>
+      <c r="G270" s="8"/>
+      <c r="H270" s="8"/>
+      <c r="I270" s="8"/>
+    </row>
+    <row r="271" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F271" s="8"/>
+      <c r="G271" s="8"/>
+      <c r="H271" s="8"/>
+      <c r="I271" s="8"/>
+    </row>
+    <row r="272" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F272" s="8"/>
+      <c r="G272" s="8"/>
+      <c r="H272" s="8"/>
+      <c r="I272" s="8"/>
+    </row>
+    <row r="273" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F273" s="8"/>
+      <c r="G273" s="8"/>
+      <c r="H273" s="8"/>
+      <c r="I273" s="8"/>
+    </row>
+    <row r="274" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F274" s="8"/>
+      <c r="G274" s="8"/>
+      <c r="H274" s="8"/>
+      <c r="I274" s="8"/>
+    </row>
+    <row r="275" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F275" s="8"/>
+      <c r="G275" s="8"/>
+      <c r="H275" s="8"/>
+      <c r="I275" s="8"/>
+    </row>
+    <row r="276" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+      <c r="H276" s="8"/>
+      <c r="I276" s="8"/>
+    </row>
+    <row r="277" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F277" s="8"/>
+      <c r="G277" s="8"/>
+      <c r="H277" s="8"/>
+      <c r="I277" s="8"/>
+    </row>
+    <row r="278" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F278" s="8"/>
+      <c r="G278" s="8"/>
+      <c r="H278" s="8"/>
+      <c r="I278" s="8"/>
+    </row>
+    <row r="279" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F279" s="8"/>
+      <c r="G279" s="8"/>
+      <c r="H279" s="8"/>
+      <c r="I279" s="8"/>
+    </row>
+    <row r="280" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F280" s="8"/>
+      <c r="G280" s="8"/>
+      <c r="H280" s="8"/>
+      <c r="I280" s="8"/>
+    </row>
+    <row r="281" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F281" s="8"/>
+      <c r="G281" s="8"/>
+      <c r="H281" s="8"/>
+      <c r="I281" s="8"/>
+    </row>
+    <row r="282" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F282" s="8"/>
+      <c r="G282" s="8"/>
+      <c r="H282" s="8"/>
+      <c r="I282" s="8"/>
+    </row>
+    <row r="283" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F283" s="8"/>
+      <c r="G283" s="8"/>
+      <c r="H283" s="8"/>
+      <c r="I283" s="8"/>
+    </row>
+    <row r="284" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
+      <c r="H284" s="8"/>
+      <c r="I284" s="8"/>
+    </row>
+    <row r="285" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F285" s="8"/>
+      <c r="G285" s="8"/>
+      <c r="H285" s="8"/>
+      <c r="I285" s="8"/>
+    </row>
+    <row r="286" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F286" s="8"/>
+      <c r="G286" s="8"/>
+      <c r="H286" s="8"/>
+      <c r="I286" s="8"/>
+    </row>
+    <row r="287" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F287" s="8"/>
+      <c r="G287" s="8"/>
+      <c r="H287" s="8"/>
+      <c r="I287" s="8"/>
+    </row>
+    <row r="288" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F288" s="8"/>
+      <c r="G288" s="8"/>
+      <c r="H288" s="8"/>
+      <c r="I288" s="8"/>
+    </row>
+    <row r="289" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F289" s="8"/>
+      <c r="G289" s="8"/>
+      <c r="H289" s="8"/>
+      <c r="I289" s="8"/>
+    </row>
+    <row r="290" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F290" s="8"/>
+      <c r="G290" s="8"/>
+      <c r="H290" s="8"/>
+      <c r="I290" s="8"/>
+    </row>
+    <row r="291" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F291" s="8"/>
+      <c r="G291" s="8"/>
+      <c r="H291" s="8"/>
+      <c r="I291" s="8"/>
+    </row>
+    <row r="292" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F292" s="8"/>
+      <c r="G292" s="8"/>
+      <c r="H292" s="8"/>
+      <c r="I292" s="8"/>
+    </row>
+    <row r="293" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F293" s="8"/>
+      <c r="G293" s="8"/>
+      <c r="H293" s="8"/>
+      <c r="I293" s="8"/>
+    </row>
+    <row r="294" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F294" s="8"/>
+      <c r="G294" s="8"/>
+      <c r="H294" s="8"/>
+      <c r="I294" s="8"/>
+    </row>
+    <row r="295" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F295" s="8"/>
+      <c r="G295" s="8"/>
+      <c r="H295" s="8"/>
+      <c r="I295" s="8"/>
+    </row>
+    <row r="296" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F296" s="8"/>
+      <c r="G296" s="8"/>
+      <c r="H296" s="8"/>
+      <c r="I296" s="8"/>
+    </row>
+    <row r="297" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F297" s="8"/>
+      <c r="G297" s="8"/>
+      <c r="H297" s="8"/>
+      <c r="I297" s="8"/>
+    </row>
+    <row r="298" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F298" s="8"/>
+      <c r="G298" s="8"/>
+      <c r="H298" s="8"/>
+      <c r="I298" s="8"/>
+    </row>
+    <row r="299" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F299" s="8"/>
+      <c r="G299" s="8"/>
+      <c r="H299" s="8"/>
+      <c r="I299" s="8"/>
+    </row>
+    <row r="300" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
+      <c r="H300" s="8"/>
+      <c r="I300" s="8"/>
+    </row>
+    <row r="301" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F301" s="8"/>
+      <c r="G301" s="8"/>
+      <c r="H301" s="8"/>
+      <c r="I301" s="8"/>
+    </row>
+    <row r="302" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F302" s="8"/>
+      <c r="G302" s="8"/>
+      <c r="H302" s="8"/>
+      <c r="I302" s="8"/>
+    </row>
+    <row r="303" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F303" s="8"/>
+      <c r="G303" s="8"/>
+      <c r="H303" s="8"/>
+      <c r="I303" s="8"/>
+    </row>
+    <row r="304" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F304" s="8"/>
+      <c r="G304" s="8"/>
+      <c r="H304" s="8"/>
+      <c r="I304" s="8"/>
+    </row>
+    <row r="305" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F305" s="8"/>
+      <c r="G305" s="8"/>
+      <c r="H305" s="8"/>
+      <c r="I305" s="8"/>
+    </row>
+    <row r="306" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F306" s="8"/>
+      <c r="G306" s="8"/>
+      <c r="H306" s="8"/>
+      <c r="I306" s="8"/>
+    </row>
+    <row r="307" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F307" s="8"/>
+      <c r="G307" s="8"/>
+      <c r="H307" s="8"/>
+      <c r="I307" s="8"/>
+    </row>
+    <row r="308" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F308" s="8"/>
+      <c r="G308" s="8"/>
+      <c r="H308" s="8"/>
+      <c r="I308" s="8"/>
+    </row>
+    <row r="309" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F309" s="8"/>
+      <c r="G309" s="8"/>
+      <c r="H309" s="8"/>
+      <c r="I309" s="8"/>
+    </row>
+    <row r="310" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F310" s="8"/>
+      <c r="G310" s="8"/>
+      <c r="H310" s="8"/>
+      <c r="I310" s="8"/>
+    </row>
+    <row r="311" spans="6:9" x14ac:dyDescent="0.3">
+      <c r="F311" s="8"/>
+      <c r="G311" s="8"/>
+      <c r="H311" s="8"/>
+      <c r="I311" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
